--- a/biology/Botanique/Parc_Youri-Gagarine_(Samara)/Parc_Youri-Gagarine_(Samara).xlsx
+++ b/biology/Botanique/Parc_Youri-Gagarine_(Samara)/Parc_Youri-Gagarine_(Samara).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Youri-Gagarine (Парк имени Юрия Гагарина) est un espace vert de la ville de Samara comprenant des attractions et des lieux culturels à ciel ouvert qui a été inauguré en juillet 1976. Il porte le nom du cosmonaute soviétique Youri Gagarine, dont la statue domine à Samara les bords de la Volga. Il s'étend sur 0,3 hectare dans le raïon Industriel. C'est un rendez-vous de promenades fort apprécié des habitants de Samara.
@@ -512,7 +524,9 @@
           <t>Attractions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc possède un canal artificiel avec une chute d'eau, un lac artificiel avec des cygnes, une patinoire à ciel ouvert en hiver, un manège ouvert pour chevaux et poneys, une grande roue de 25 mètres de hauteur et des attractions pour enfants ouvertes pendant la belle saison.
 </t>
@@ -543,7 +557,9 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est planté de nombreux chênes et parcouru par des écureuils.
 </t>
